--- a/biology/Médecine/Clinique_Saint-Joseph_(Liège)/Clinique_Saint-Joseph_(Liège).xlsx
+++ b/biology/Médecine/Clinique_Saint-Joseph_(Liège)/Clinique_Saint-Joseph_(Liège).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Joseph_(Li%C3%A8ge)</t>
+          <t>Clinique_Saint-Joseph_(Liège)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La clinique Saint-Joseph est un ancien hôpital situé au centre-ville de Liège. Elle a fermé ses portes en mars 2020. Son activité, ainsi que celles de la clinique de l’Espérance à Montegnée et de la clinique Saint-Vincent à Rocourt ont été transférées dans un nouvel hôpital construit sur les hauteurs de Liège : la Clinique CHC MontLégia[1].  
-Sa création est étroitement liée aux charbonnages des alentours puisque le sanatorium Saint-Joseph était à l’origine un dispensaire pour les mineurs blessés, comme l'a été la clinique de l'Espérance et la clinique Sainte-Rosalie[2]. 
-Jusqu'à sa fermeture, la clinique Saint-Joseph faisait partie du Groupe santé CHC et était le pôle de référence pour les services adultes lourds : oncologie, radiothérapie, coronarographie cardiaque, chirurgie abdominale lourde, neurochirurgie, orthopédie, radiologie et neuroradiologie interventionnelles, PET-scan, IRM, unité vasculaire... En tant qu'hôpital général de proximité, elle offrait à côté des services lourds l'ensemble des services habituels d'un hôpital : urgences, soins intensifs, chirurgie, médecine, gériatrie, consultations et services médicotechniques (anatomopathologie, médecine nucléaire, laboratoire, imagerie)[3].
-A son déménagement, la clinique comptait 335 lits et occupait un millier de personnes (membres du personnel et indépendants)[4].
+La clinique Saint-Joseph est un ancien hôpital situé au centre-ville de Liège. Elle a fermé ses portes en mars 2020. Son activité, ainsi que celles de la clinique de l’Espérance à Montegnée et de la clinique Saint-Vincent à Rocourt ont été transférées dans un nouvel hôpital construit sur les hauteurs de Liège : la Clinique CHC MontLégia.  
+Sa création est étroitement liée aux charbonnages des alentours puisque le sanatorium Saint-Joseph était à l’origine un dispensaire pour les mineurs blessés, comme l'a été la clinique de l'Espérance et la clinique Sainte-Rosalie. 
+Jusqu'à sa fermeture, la clinique Saint-Joseph faisait partie du Groupe santé CHC et était le pôle de référence pour les services adultes lourds : oncologie, radiothérapie, coronarographie cardiaque, chirurgie abdominale lourde, neurochirurgie, orthopédie, radiologie et neuroradiologie interventionnelles, PET-scan, IRM, unité vasculaire... En tant qu'hôpital général de proximité, elle offrait à côté des services lourds l'ensemble des services habituels d'un hôpital : urgences, soins intensifs, chirurgie, médecine, gériatrie, consultations et services médicotechniques (anatomopathologie, médecine nucléaire, laboratoire, imagerie).
+A son déménagement, la clinique comptait 335 lits et occupait un millier de personnes (membres du personnel et indépendants).
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Joseph_(Li%C3%A8ge)</t>
+          <t>Clinique_Saint-Joseph_(Liège)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">A la fin du 19e siècle, la région liégeoise est en plein essor industriel et minier. Les sœurs de Saint-Charles Borromée organisent les soins et la charité pour une population démunie à l'Institut ophtalmique, un dispensaire alors situé rue Sainte-Marguerite à Liège.
 1907 : à l'instigation de la direction du charbonnage de Bonne-fin, le sanatorium Saint-Joseph (rue Sainte-Marguerite, non loin de l'Institut ophtalmique) est créé par les religieuses de Saint-Charles Borromée. Il compte 30 lits.
@@ -523,21 +537,21 @@
 1927 : un service de radiologie ouvre.
 1947 : un nouveau bâtiment est construit rue de Hesbaye. La capacité de la clinique passe à 120 lits.
 1959-1962 : elle s’agrandit à nouveau pour passer à 211 lits. L’entrée principale ne se trouve plus rue Sainte-Marguerite mais rue de Hesbaye.
-1964 : l'institut ophtalmique est englobé dans les bâtiments de la clinique et un service de neurochirurgie ouvre (un des premiers de ce type en province de Liège)[5].
+1964 : l'institut ophtalmique est englobé dans les bâtiments de la clinique et un service de neurochirurgie ouvre (un des premiers de ce type en province de Liège).
 1974-1976 : un nouveau bâtiment est érigé au coin de la rue Sainte-Marguerite et de la rue Wacheray.
-1987 : "Jean-Luc Dehaene, alors ministre de tutelle, oblige les hôpitaux de moins de 150 lits à fusionner ou à fermer"[3],[6]. La clinique Saint-Joseph fusionne avec la clinique Sainte-Elisabeth située Montagne Sainte-Walburge (70 lits)[7],[8].
-1991 : la clinique Saint-Joseph fusionne avec la clinique de l'Espérance pour donner naissance au Centre hospitalier Saint-Joseph – Espérance[9]. La même année, le service de chirurgie abdominale s’inscrit comme pionnier de la chirurgie laparoscopique. C’est à Saint-Joseph qu’on a réalisé trois premières mondiales par laparoscopie : un reflux gastro-œsophagien en février 1991, une ablation totale de l’œsophage en juillet et une ablation totale du côlon en août de la même année[1],[10].
-1993 : l'activité et les lits de Sainte-Elisabeth (Liège) sont rapatriés sur le site de Saint-Joseph[3]. La capacité de la clinique passe à 319 lits. La même année, le Centre hospitalier Saint-Joseph – Espérance fusionne avec la clinique Notre-Dame Waremme pour devenir le Centre hospitalier Saint-Joseph – Espérance – Notre-Dame[11].
-1996 : c'est au tour de la clinique Notre-Dame Hermalle de les rejoindre. Ils forment l’entité « Les Cliniques Saint-Joseph »[3],[12]. La maternité de L'Espérance est transférée à la clinique Saint-Joseph.
-2001 : création du Centre Hospitalier Chrétien (CHC) regroupant 6 cliniques : clinique Saint-Joseph, de l’Espérance, Saint-Vincent, Notre-Dame (Waremme), Notre-Dame (Hermalle-sous-Argenteau) et Saint-Elisabeth (Heusy)[3].
-2003 : l’idée de regrouper les trois sites liégeois pour garantir la pérennité du CHC émerge[3].
-2006 : la décision est prise, les trois sites liégeois du CHC seront rassemblés dans un nouvel hôpital sur un nouveau terrain[3].
-2007 : Saint-Joseph fête son centenaire[3].
-2008 : ouverture de l’Espace+, un espace destiné au bien-être et à la relaxation des patients d’oncologie, situé près de la clinique Saint-Joseph[13],[14]. 
-13 novembre 2011 : lors de la fusillade de la place Saint-Lambert, un chauffeur de bus a amené directement des dizaines de blessés à la clinique Saint-Joseph[1].
-2015 : la maternité de Saint-Joseph est transférée vers la clinique Saint-Vincent[15]. C'est aussi le début de la construction de la Clinique CHC MontLégia[3].
-Janvier 2019 : les dernières sœurs de Saint-Charles Borromée quittent la clinique Saint-Joseph et le couvent La Légia pour rejoindre la Résidence Saint-Charles à Landenne-sur-Meuse[3].
-20 mars 2020 : les patients de la clinique Saint-Joseph sont transférés vers la Clinique CHC MontLégia dans un contexte particulier, celui de la pandémie de Covid-19[16].
+1987 : "Jean-Luc Dehaene, alors ministre de tutelle, oblige les hôpitaux de moins de 150 lits à fusionner ou à fermer",. La clinique Saint-Joseph fusionne avec la clinique Sainte-Elisabeth située Montagne Sainte-Walburge (70 lits),.
+1991 : la clinique Saint-Joseph fusionne avec la clinique de l'Espérance pour donner naissance au Centre hospitalier Saint-Joseph – Espérance. La même année, le service de chirurgie abdominale s’inscrit comme pionnier de la chirurgie laparoscopique. C’est à Saint-Joseph qu’on a réalisé trois premières mondiales par laparoscopie : un reflux gastro-œsophagien en février 1991, une ablation totale de l’œsophage en juillet et une ablation totale du côlon en août de la même année,.
+1993 : l'activité et les lits de Sainte-Elisabeth (Liège) sont rapatriés sur le site de Saint-Joseph. La capacité de la clinique passe à 319 lits. La même année, le Centre hospitalier Saint-Joseph – Espérance fusionne avec la clinique Notre-Dame Waremme pour devenir le Centre hospitalier Saint-Joseph – Espérance – Notre-Dame.
+1996 : c'est au tour de la clinique Notre-Dame Hermalle de les rejoindre. Ils forment l’entité « Les Cliniques Saint-Joseph »,. La maternité de L'Espérance est transférée à la clinique Saint-Joseph.
+2001 : création du Centre Hospitalier Chrétien (CHC) regroupant 6 cliniques : clinique Saint-Joseph, de l’Espérance, Saint-Vincent, Notre-Dame (Waremme), Notre-Dame (Hermalle-sous-Argenteau) et Saint-Elisabeth (Heusy).
+2003 : l’idée de regrouper les trois sites liégeois pour garantir la pérennité du CHC émerge.
+2006 : la décision est prise, les trois sites liégeois du CHC seront rassemblés dans un nouvel hôpital sur un nouveau terrain.
+2007 : Saint-Joseph fête son centenaire.
+2008 : ouverture de l’Espace+, un espace destiné au bien-être et à la relaxation des patients d’oncologie, situé près de la clinique Saint-Joseph,. 
+13 novembre 2011 : lors de la fusillade de la place Saint-Lambert, un chauffeur de bus a amené directement des dizaines de blessés à la clinique Saint-Joseph.
+2015 : la maternité de Saint-Joseph est transférée vers la clinique Saint-Vincent. C'est aussi le début de la construction de la Clinique CHC MontLégia.
+Janvier 2019 : les dernières sœurs de Saint-Charles Borromée quittent la clinique Saint-Joseph et le couvent La Légia pour rejoindre la Résidence Saint-Charles à Landenne-sur-Meuse.
+20 mars 2020 : les patients de la clinique Saint-Joseph sont transférés vers la Clinique CHC MontLégia dans un contexte particulier, celui de la pandémie de Covid-19.
 </t>
         </is>
       </c>
